--- a/schema.xlsx
+++ b/schema.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="172">
   <si>
     <t>operated_by</t>
   </si>
@@ -610,10 +610,22 @@
     <t>reset_flg</t>
   </si>
   <si>
-    <t>reset_season</t>
+    <t>reset_member_id</t>
   </si>
   <si>
     <t>reset_date</t>
+  </si>
+  <si>
+    <t>reset_examine_flg</t>
+  </si>
+  <si>
+    <t>reset_examine_member_id</t>
+  </si>
+  <si>
+    <t>reset_examine_date</t>
+  </si>
+  <si>
+    <t>YES</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2141,7 +2153,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:G26"/>
+  <dimension ref="B2:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2462,11 +2474,9 @@
         <v>166</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -2482,6 +2492,44 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="2:7" ht="16.5" customHeight="1">
+      <c r="B27" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="2:7" ht="16.5" customHeight="1">
+      <c r="B28" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="2:7" ht="16.5" customHeight="1">
+      <c r="B29" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/schema.xlsx
+++ b/schema.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="10755" windowHeight="5580"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="10755" windowHeight="5580" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="default" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="200">
   <si>
     <t>operated_by</t>
   </si>
@@ -430,9 +430,6 @@
     <t>audition_hours</t>
   </si>
   <si>
-    <t>accept_date</t>
-  </si>
-  <si>
     <t>payment_info</t>
   </si>
   <si>
@@ -626,6 +623,99 @@
   </si>
   <si>
     <t>YES</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>student_relatives_id_code</t>
+  </si>
+  <si>
+    <t>varchar(18)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>media_channel_code_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assign_member_id</t>
+  </si>
+  <si>
+    <t>assign_date</t>
+  </si>
+  <si>
+    <t>inread_status</t>
+  </si>
+  <si>
+    <t>float(11,1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(11)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>校区</t>
+  </si>
+  <si>
+    <t>手机号</t>
+  </si>
+  <si>
+    <t>入学年</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>在读学校</t>
+  </si>
+  <si>
+    <t>住址</t>
+  </si>
+  <si>
+    <t>家长关系</t>
+  </si>
+  <si>
+    <t>家长姓名</t>
+  </si>
+  <si>
+    <t>家长电话</t>
+  </si>
+  <si>
+    <t>家长身份证号</t>
+  </si>
+  <si>
+    <t>会员等级</t>
+  </si>
+  <si>
+    <t>一级渠道</t>
+  </si>
+  <si>
+    <t>二级渠道</t>
+  </si>
+  <si>
+    <t>意向程度</t>
+  </si>
+  <si>
+    <t>跟进状态</t>
+  </si>
+  <si>
+    <t>试听剩余小时数</t>
+  </si>
+  <si>
+    <t>在读状态</t>
+  </si>
+  <si>
+    <t>所属人</t>
+  </si>
+  <si>
+    <t>所属修改日</t>
+  </si>
+  <si>
+    <t>学员姓名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学员ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -637,7 +727,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -651,7 +741,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -768,7 +858,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -799,9 +889,15 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -809,7 +905,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1095,7 +1191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
@@ -1233,7 +1329,7 @@
         <v>45</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -1245,7 +1341,7 @@
         <v>46</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -1304,7 +1400,7 @@
     </row>
     <row r="8" spans="2:7" ht="16.5" customHeight="1">
       <c r="B8" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
@@ -1318,7 +1414,7 @@
     </row>
     <row r="9" spans="2:7" ht="16.5" customHeight="1">
       <c r="B9" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>1</v>
@@ -1330,7 +1426,7 @@
     </row>
     <row r="10" spans="2:7" ht="16.5" customHeight="1">
       <c r="B10" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>1</v>
@@ -1344,7 +1440,7 @@
     </row>
     <row r="11" spans="2:7" ht="16.5" customHeight="1">
       <c r="B11" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>7</v>
@@ -1358,7 +1454,7 @@
     </row>
     <row r="12" spans="2:7" ht="16.5" customHeight="1">
       <c r="B12" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>37</v>
@@ -1398,7 +1494,7 @@
         <v>45</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -1410,7 +1506,7 @@
         <v>46</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -1439,7 +1535,7 @@
     </row>
     <row r="6" spans="2:7" ht="16.5" customHeight="1">
       <c r="B6" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>1</v>
@@ -1471,7 +1567,7 @@
     </row>
     <row r="8" spans="2:7" ht="16.5" customHeight="1">
       <c r="B8" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>1</v>
@@ -1485,7 +1581,7 @@
     </row>
     <row r="9" spans="2:7" ht="16.5" customHeight="1">
       <c r="B9" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>1</v>
@@ -1497,7 +1593,7 @@
     </row>
     <row r="10" spans="2:7" ht="16.5" customHeight="1">
       <c r="B10" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>37</v>
@@ -1537,7 +1633,7 @@
         <v>45</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -1549,7 +1645,7 @@
         <v>46</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -1578,7 +1674,7 @@
     </row>
     <row r="6" spans="2:7" ht="16.5" customHeight="1">
       <c r="B6" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>1</v>
@@ -1596,10 +1692,10 @@
     </row>
     <row r="7" spans="2:7" ht="16.5" customHeight="1">
       <c r="B7" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>125</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1622,7 +1718,7 @@
     </row>
     <row r="9" spans="2:7" ht="16.5" customHeight="1">
       <c r="B9" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>37</v>
@@ -1636,7 +1732,7 @@
     </row>
     <row r="10" spans="2:7" ht="16.5" customHeight="1">
       <c r="B10" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>37</v>
@@ -1650,7 +1746,7 @@
     </row>
     <row r="11" spans="2:7" ht="16.5" customHeight="1">
       <c r="B11" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>37</v>
@@ -1664,7 +1760,7 @@
     </row>
     <row r="12" spans="2:7" ht="16.5" customHeight="1">
       <c r="B12" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>7</v>
@@ -1678,7 +1774,7 @@
     </row>
     <row r="13" spans="2:7" ht="16.5" customHeight="1">
       <c r="B13" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>7</v>
@@ -1692,7 +1788,7 @@
     </row>
     <row r="14" spans="2:7" ht="16.5" customHeight="1">
       <c r="B14" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>1</v>
@@ -1704,7 +1800,7 @@
     </row>
     <row r="15" spans="2:7" ht="16.5" customHeight="1">
       <c r="B15" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>4</v>
@@ -1742,7 +1838,7 @@
         <v>45</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -1754,7 +1850,7 @@
         <v>46</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -1783,7 +1879,7 @@
     </row>
     <row r="6" spans="2:7" ht="16.5" customHeight="1">
       <c r="B6" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>1</v>
@@ -1801,7 +1897,7 @@
     </row>
     <row r="7" spans="2:7" ht="16.5" customHeight="1">
       <c r="B7" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>17</v>
@@ -1813,7 +1909,7 @@
     </row>
     <row r="8" spans="2:7" ht="16.5" customHeight="1">
       <c r="B8" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>1</v>
@@ -1841,7 +1937,7 @@
     </row>
     <row r="10" spans="2:7" ht="16.5" customHeight="1">
       <c r="B10" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>1</v>
@@ -1853,7 +1949,7 @@
     </row>
     <row r="11" spans="2:7" ht="16.5" customHeight="1">
       <c r="B11" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>37</v>
@@ -1867,7 +1963,7 @@
     </row>
     <row r="12" spans="2:7" ht="16.5" customHeight="1">
       <c r="B12" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>1</v>
@@ -1881,7 +1977,7 @@
     </row>
     <row r="13" spans="2:7" ht="16.5" customHeight="1">
       <c r="B13" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>7</v>
@@ -1895,7 +1991,7 @@
     </row>
     <row r="14" spans="2:7" ht="16.5" customHeight="1">
       <c r="B14" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>37</v>
@@ -1909,7 +2005,7 @@
     </row>
     <row r="15" spans="2:7" ht="16.5" customHeight="1">
       <c r="B15" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>37</v>
@@ -1923,7 +2019,7 @@
     </row>
     <row r="16" spans="2:7" ht="16.5" customHeight="1">
       <c r="B16" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>37</v>
@@ -1937,7 +2033,7 @@
     </row>
     <row r="17" spans="2:7" ht="16.5" customHeight="1">
       <c r="B17" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>7</v>
@@ -1951,7 +2047,7 @@
     </row>
     <row r="18" spans="2:7" ht="16.5" customHeight="1">
       <c r="B18" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>37</v>
@@ -1991,7 +2087,7 @@
         <v>45</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -2003,7 +2099,7 @@
         <v>46</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -2032,7 +2128,7 @@
     </row>
     <row r="6" spans="2:7" ht="16.5" customHeight="1">
       <c r="B6" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>1</v>
@@ -2106,7 +2202,7 @@
     </row>
     <row r="11" spans="2:7" ht="16.5" customHeight="1">
       <c r="B11" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>43</v>
@@ -2118,7 +2214,7 @@
     </row>
     <row r="12" spans="2:7" ht="16.5" customHeight="1">
       <c r="B12" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>4</v>
@@ -2132,7 +2228,7 @@
     </row>
     <row r="13" spans="2:7" ht="16.5" customHeight="1">
       <c r="B13" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>4</v>
@@ -2172,7 +2268,7 @@
         <v>45</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -2184,7 +2280,7 @@
         <v>46</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -2213,7 +2309,7 @@
     </row>
     <row r="6" spans="2:7" ht="16.5" customHeight="1">
       <c r="B6" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>1</v>
@@ -2231,7 +2327,7 @@
     </row>
     <row r="7" spans="2:7" ht="16.5" customHeight="1">
       <c r="B7" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>7</v>
@@ -2273,7 +2369,7 @@
     </row>
     <row r="10" spans="2:7" ht="16.5" customHeight="1">
       <c r="B10" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>1</v>
@@ -2315,7 +2411,7 @@
     </row>
     <row r="13" spans="2:7" ht="16.5" customHeight="1">
       <c r="B13" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>4</v>
@@ -2329,7 +2425,7 @@
     </row>
     <row r="14" spans="2:7" ht="16.5" customHeight="1">
       <c r="B14" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>4</v>
@@ -2343,7 +2439,7 @@
     </row>
     <row r="15" spans="2:7" ht="16.5" customHeight="1">
       <c r="B15" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>37</v>
@@ -2357,7 +2453,7 @@
     </row>
     <row r="16" spans="2:7" ht="16.5" customHeight="1">
       <c r="B16" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>37</v>
@@ -2371,7 +2467,7 @@
     </row>
     <row r="17" spans="2:7" ht="16.5" customHeight="1">
       <c r="B17" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>1</v>
@@ -2395,7 +2491,7 @@
     </row>
     <row r="19" spans="2:7" ht="16.5" customHeight="1">
       <c r="B19" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>4</v>
@@ -2407,7 +2503,7 @@
     </row>
     <row r="20" spans="2:7" ht="16.5" customHeight="1">
       <c r="B20" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>4</v>
@@ -2419,7 +2515,7 @@
     </row>
     <row r="21" spans="2:7" ht="16.5" customHeight="1">
       <c r="B21" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>37</v>
@@ -2431,7 +2527,7 @@
     </row>
     <row r="22" spans="2:7" ht="16.5" customHeight="1">
       <c r="B22" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>7</v>
@@ -2445,7 +2541,7 @@
     </row>
     <row r="23" spans="2:7" ht="16.5" customHeight="1">
       <c r="B23" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>4</v>
@@ -2457,7 +2553,7 @@
     </row>
     <row r="24" spans="2:7" ht="16.5" customHeight="1">
       <c r="B24" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>7</v>
@@ -2471,7 +2567,7 @@
     </row>
     <row r="25" spans="2:7" ht="16.5" customHeight="1">
       <c r="B25" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>1</v>
@@ -2483,7 +2579,7 @@
     </row>
     <row r="26" spans="2:7" ht="16.5" customHeight="1">
       <c r="B26" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>4</v>
@@ -2495,13 +2591,13 @@
     </row>
     <row r="27" spans="2:7" ht="16.5" customHeight="1">
       <c r="B27" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -2509,7 +2605,7 @@
     </row>
     <row r="28" spans="2:7" ht="16.5" customHeight="1">
       <c r="B28" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>1</v>
@@ -2521,7 +2617,7 @@
     </row>
     <row r="29" spans="2:7" ht="16.5" customHeight="1">
       <c r="B29" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>4</v>
@@ -3741,9 +3837,9 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:G23"/>
+  <dimension ref="B2:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
@@ -3815,153 +3911,175 @@
       <c r="F6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="10" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="7" spans="2:7" ht="16.5" customHeight="1">
       <c r="B7" s="5" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="G7" s="11" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="8" spans="2:7" ht="16.5" customHeight="1">
       <c r="B8" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="G8" s="10" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="9" spans="2:7" ht="16.5" customHeight="1">
       <c r="B9" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="G9" s="11" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="10" spans="2:7" ht="16.5" customHeight="1">
       <c r="B10" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="G10" s="10" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="11" spans="2:7" ht="16.5" customHeight="1">
       <c r="B11" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="G11" s="11" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="12" spans="2:7" ht="16.5" customHeight="1">
       <c r="B12" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="G12" s="10" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="13" spans="2:7" ht="16.5" customHeight="1">
       <c r="B13" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="G13" s="11" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="14" spans="2:7" ht="16.5" customHeight="1">
       <c r="B14" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="G14" s="10" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="15" spans="2:7" ht="16.5" customHeight="1">
       <c r="B15" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="G15" s="11" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="16" spans="2:7" ht="16.5" customHeight="1">
       <c r="B16" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="G16" s="10" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="17" spans="2:7" ht="16.5" customHeight="1">
       <c r="B17" s="5" t="s">
-        <v>104</v>
+        <v>171</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="G17" s="11" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="18" spans="2:7" ht="16.5" customHeight="1">
       <c r="B18" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>7</v>
@@ -3971,11 +4089,13 @@
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="G18" s="10" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="19" spans="2:7" ht="16.5" customHeight="1">
       <c r="B19" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>7</v>
@@ -3985,63 +4105,121 @@
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="G19" s="11" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="20" spans="2:7" ht="16.5" customHeight="1">
       <c r="B20" s="4" t="s">
-        <v>107</v>
+        <v>173</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="G20" s="10" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="21" spans="2:7" ht="16.5" customHeight="1">
       <c r="B21" s="5" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="G21" s="11" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="22" spans="2:7" ht="16.5" customHeight="1">
       <c r="B22" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="G22" s="10" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="23" spans="2:7" ht="16.5" customHeight="1">
       <c r="B23" s="5" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1</v>
+        <v>177</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="G23" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="16.5" customHeight="1">
+      <c r="B24" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="16.5" customHeight="1">
+      <c r="B25" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="16.5" customHeight="1">
+      <c r="B26" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="10" t="s">
+        <v>197</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/schema.xlsx
+++ b/schema.xlsx
@@ -1,34 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="10755" windowHeight="5580" activeTab="8"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="10755" windowHeight="5580" tabRatio="773" firstSheet="7" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="default" sheetId="5" r:id="rId1"/>
     <sheet name="school_info" sheetId="7" r:id="rId2"/>
-    <sheet name="room_info" sheetId="8" r:id="rId3"/>
-    <sheet name="item_info" sheetId="9" r:id="rId4"/>
-    <sheet name="member_login" sheetId="6" r:id="rId5"/>
-    <sheet name="member_info" sheetId="10" r:id="rId6"/>
-    <sheet name="member_position" sheetId="11" r:id="rId7"/>
-    <sheet name="teacher_info" sheetId="12" r:id="rId8"/>
-    <sheet name="student_info" sheetId="13" r:id="rId9"/>
-    <sheet name="order_cart" sheetId="15" r:id="rId10"/>
-    <sheet name="payment_info" sheetId="14" r:id="rId11"/>
-    <sheet name="order_info" sheetId="16" r:id="rId12"/>
-    <sheet name="order_item_info" sheetId="17" r:id="rId13"/>
-    <sheet name="schedule_info" sheetId="18" r:id="rId14"/>
-    <sheet name="course_info" sheetId="19" r:id="rId15"/>
+    <sheet name="item_info" sheetId="9" r:id="rId3"/>
+    <sheet name="member_login" sheetId="6" r:id="rId4"/>
+    <sheet name="member_info" sheetId="10" r:id="rId5"/>
+    <sheet name="member_position" sheetId="11" r:id="rId6"/>
+    <sheet name="teacher_info" sheetId="12" r:id="rId7"/>
+    <sheet name="student_info" sheetId="13" r:id="rId8"/>
+    <sheet name="order_cart" sheetId="15" r:id="rId9"/>
+    <sheet name="payment_info" sheetId="14" r:id="rId10"/>
+    <sheet name="order_info" sheetId="16" r:id="rId11"/>
+    <sheet name="order_item_info" sheetId="17" r:id="rId12"/>
+    <sheet name="course_info" sheetId="19" r:id="rId13"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="188">
   <si>
     <t>operated_by</t>
   </si>
@@ -166,16 +164,7 @@
     <t>school_name</t>
   </si>
   <si>
-    <t>room_id</t>
-  </si>
-  <si>
-    <t>room_name</t>
-  </si>
-  <si>
     <t>varchar(20)</t>
-  </si>
-  <si>
-    <t>usable_flg</t>
   </si>
   <si>
     <t>item_id</t>
@@ -250,14 +239,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>room_info</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>教室信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>item_info</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -542,25 +523,6 @@
     <t>order_item_remain</t>
   </si>
   <si>
-    <t>schedule_info</t>
-  </si>
-  <si>
-    <t>班课课表信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>schedule_id</t>
-  </si>
-  <si>
-    <t>schedule_content</t>
-  </si>
-  <si>
-    <t>schedule_start_date</t>
-  </si>
-  <si>
-    <t>schedule_expire_date</t>
-  </si>
-  <si>
     <t>course_info</t>
   </si>
   <si>
@@ -586,9 +548,6 @@
     <t>course_hours</t>
   </si>
   <si>
-    <t>trans_price</t>
-  </si>
-  <si>
     <t>actual_start_date</t>
   </si>
   <si>
@@ -598,32 +557,10 @@
     <t>actual_course_hours</t>
   </si>
   <si>
-    <t>teacher_confirm_flg</t>
-  </si>
-  <si>
-    <t>teacher_confirm_date</t>
-  </si>
-  <si>
-    <t>reset_flg</t>
-  </si>
-  <si>
-    <t>reset_member_id</t>
-  </si>
-  <si>
-    <t>reset_date</t>
-  </si>
-  <si>
-    <t>reset_examine_flg</t>
-  </si>
-  <si>
     <t>reset_examine_member_id</t>
   </si>
   <si>
     <t>reset_examine_date</t>
-  </si>
-  <si>
-    <t>YES</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>student_relatives_id_code</t>
@@ -717,6 +654,27 @@
   <si>
     <t>学员ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>audition_type</t>
+  </si>
+  <si>
+    <t>multi_course_id</t>
+  </si>
+  <si>
+    <t>course_trans_price</t>
+  </si>
+  <si>
+    <t>float(11,2)</t>
+  </si>
+  <si>
+    <t>confirm_flg</t>
+  </si>
+  <si>
+    <t>confirm_member_id</t>
+  </si>
+  <si>
+    <t>confirm_date</t>
   </si>
 </sst>
 </file>
@@ -727,7 +685,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -741,7 +699,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -897,7 +855,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -905,7 +863,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1205,7 +1163,7 @@
   <sheetData>
     <row r="2" spans="2:7" ht="16.5" customHeight="1">
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
@@ -1215,10 +1173,10 @@
     </row>
     <row r="3" spans="2:7" ht="16.5" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -1309,171 +1267,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:G12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="2.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="3" customWidth="1"/>
-    <col min="4" max="6" width="7.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="50" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="2.75" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="5" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B6" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B8" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B9" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B10" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B11" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B12" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:G10"/>
   <sheetViews>
@@ -1491,10 +1284,10 @@
   <sheetData>
     <row r="2" spans="2:7" ht="16.5" customHeight="1">
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -1503,10 +1296,10 @@
     </row>
     <row r="3" spans="2:7" ht="16.5" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -1535,7 +1328,7 @@
     </row>
     <row r="6" spans="2:7" ht="16.5" customHeight="1">
       <c r="B6" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>1</v>
@@ -1553,7 +1346,7 @@
     </row>
     <row r="7" spans="2:7" ht="16.5" customHeight="1">
       <c r="B7" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>1</v>
@@ -1567,7 +1360,7 @@
     </row>
     <row r="8" spans="2:7" ht="16.5" customHeight="1">
       <c r="B8" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>1</v>
@@ -1581,7 +1374,7 @@
     </row>
     <row r="9" spans="2:7" ht="16.5" customHeight="1">
       <c r="B9" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>1</v>
@@ -1593,10 +1386,10 @@
     </row>
     <row r="10" spans="2:7" ht="16.5" customHeight="1">
       <c r="B10" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>2</v>
@@ -1612,7 +1405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:G15"/>
   <sheetViews>
@@ -1630,10 +1423,10 @@
   <sheetData>
     <row r="2" spans="2:7" ht="16.5" customHeight="1">
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -1642,10 +1435,10 @@
     </row>
     <row r="3" spans="2:7" ht="16.5" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -1674,7 +1467,7 @@
     </row>
     <row r="6" spans="2:7" ht="16.5" customHeight="1">
       <c r="B6" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>1</v>
@@ -1692,10 +1485,10 @@
     </row>
     <row r="7" spans="2:7" ht="16.5" customHeight="1">
       <c r="B7" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1704,7 +1497,7 @@
     </row>
     <row r="8" spans="2:7" ht="16.5" customHeight="1">
       <c r="B8" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>1</v>
@@ -1718,10 +1511,10 @@
     </row>
     <row r="9" spans="2:7" ht="16.5" customHeight="1">
       <c r="B9" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>2</v>
@@ -1732,10 +1525,10 @@
     </row>
     <row r="10" spans="2:7" ht="16.5" customHeight="1">
       <c r="B10" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>2</v>
@@ -1746,10 +1539,10 @@
     </row>
     <row r="11" spans="2:7" ht="16.5" customHeight="1">
       <c r="B11" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>2</v>
@@ -1760,7 +1553,7 @@
     </row>
     <row r="12" spans="2:7" ht="16.5" customHeight="1">
       <c r="B12" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>7</v>
@@ -1774,7 +1567,7 @@
     </row>
     <row r="13" spans="2:7" ht="16.5" customHeight="1">
       <c r="B13" s="5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>7</v>
@@ -1788,7 +1581,7 @@
     </row>
     <row r="14" spans="2:7" ht="16.5" customHeight="1">
       <c r="B14" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>1</v>
@@ -1800,7 +1593,7 @@
     </row>
     <row r="15" spans="2:7" ht="16.5" customHeight="1">
       <c r="B15" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>4</v>
@@ -1817,7 +1610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:G18"/>
   <sheetViews>
@@ -1835,10 +1628,10 @@
   <sheetData>
     <row r="2" spans="2:7" ht="16.5" customHeight="1">
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -1847,10 +1640,10 @@
     </row>
     <row r="3" spans="2:7" ht="16.5" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -1879,7 +1672,7 @@
     </row>
     <row r="6" spans="2:7" ht="16.5" customHeight="1">
       <c r="B6" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>1</v>
@@ -1897,7 +1690,7 @@
     </row>
     <row r="7" spans="2:7" ht="16.5" customHeight="1">
       <c r="B7" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>17</v>
@@ -1909,7 +1702,7 @@
     </row>
     <row r="8" spans="2:7" ht="16.5" customHeight="1">
       <c r="B8" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>1</v>
@@ -1923,7 +1716,7 @@
     </row>
     <row r="9" spans="2:7" ht="16.5" customHeight="1">
       <c r="B9" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>1</v>
@@ -1937,7 +1730,7 @@
     </row>
     <row r="10" spans="2:7" ht="16.5" customHeight="1">
       <c r="B10" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>1</v>
@@ -1949,10 +1742,10 @@
     </row>
     <row r="11" spans="2:7" ht="16.5" customHeight="1">
       <c r="B11" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>2</v>
@@ -1963,7 +1756,7 @@
     </row>
     <row r="12" spans="2:7" ht="16.5" customHeight="1">
       <c r="B12" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>1</v>
@@ -1977,7 +1770,7 @@
     </row>
     <row r="13" spans="2:7" ht="16.5" customHeight="1">
       <c r="B13" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>7</v>
@@ -1991,10 +1784,10 @@
     </row>
     <row r="14" spans="2:7" ht="16.5" customHeight="1">
       <c r="B14" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>2</v>
@@ -2005,10 +1798,10 @@
     </row>
     <row r="15" spans="2:7" ht="16.5" customHeight="1">
       <c r="B15" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>2</v>
@@ -2019,10 +1812,10 @@
     </row>
     <row r="16" spans="2:7" ht="16.5" customHeight="1">
       <c r="B16" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>2</v>
@@ -2033,7 +1826,7 @@
     </row>
     <row r="17" spans="2:7" ht="16.5" customHeight="1">
       <c r="B17" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>7</v>
@@ -2047,10 +1840,10 @@
     </row>
     <row r="18" spans="2:7" ht="16.5" customHeight="1">
       <c r="B18" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>2</v>
@@ -2066,11 +1859,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:G13"/>
+  <dimension ref="B2:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
@@ -2084,10 +1879,10 @@
   <sheetData>
     <row r="2" spans="2:7" ht="16.5" customHeight="1">
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -2096,10 +1891,10 @@
     </row>
     <row r="3" spans="2:7" ht="16.5" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -2128,7 +1923,7 @@
     </row>
     <row r="6" spans="2:7" ht="16.5" customHeight="1">
       <c r="B6" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>1</v>
@@ -2146,10 +1941,10 @@
     </row>
     <row r="7" spans="2:7" ht="16.5" customHeight="1">
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>2</v>
@@ -2160,10 +1955,10 @@
     </row>
     <row r="8" spans="2:7" ht="16.5" customHeight="1">
       <c r="B8" s="4" t="s">
-        <v>29</v>
+        <v>181</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>2</v>
@@ -2174,24 +1969,22 @@
     </row>
     <row r="9" spans="2:7" ht="16.5" customHeight="1">
       <c r="B9" s="5" t="s">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="2:7" ht="16.5" customHeight="1">
       <c r="B10" s="4" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>2</v>
@@ -2202,233 +1995,48 @@
     </row>
     <row r="11" spans="2:7" ht="16.5" customHeight="1">
       <c r="B11" s="5" t="s">
-        <v>147</v>
+        <v>88</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="2:7" ht="16.5" customHeight="1">
       <c r="B12" s="4" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="2:7" ht="16.5" customHeight="1">
       <c r="B13" s="5" t="s">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:G29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="2.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="3" customWidth="1"/>
-    <col min="4" max="6" width="7.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="50" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="2.75" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="5" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B6" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B7" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B10" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B11" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B12" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B13" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-    </row>
     <row r="14" spans="2:7" ht="16.5" customHeight="1">
       <c r="B14" s="4" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>2</v>
@@ -2439,10 +2047,10 @@
     </row>
     <row r="15" spans="2:7" ht="16.5" customHeight="1">
       <c r="B15" s="5" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>2</v>
@@ -2453,10 +2061,10 @@
     </row>
     <row r="16" spans="2:7" ht="16.5" customHeight="1">
       <c r="B16" s="4" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>37</v>
+        <v>184</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>2</v>
@@ -2467,43 +2075,49 @@
     </row>
     <row r="17" spans="2:7" ht="16.5" customHeight="1">
       <c r="B17" s="5" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="2:7" ht="16.5" customHeight="1">
       <c r="B18" s="4" t="s">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="2:7" ht="16.5" customHeight="1">
       <c r="B19" s="5" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="5"/>
+        <v>184</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="2:7" ht="16.5" customHeight="1">
       <c r="B20" s="4" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>4</v>
@@ -2515,10 +2129,10 @@
     </row>
     <row r="21" spans="2:7" ht="16.5" customHeight="1">
       <c r="B21" s="5" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -2527,50 +2141,48 @@
     </row>
     <row r="22" spans="2:7" ht="16.5" customHeight="1">
       <c r="B22" s="4" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="2:7" ht="16.5" customHeight="1">
       <c r="B23" s="5" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="2:7" ht="16.5" customHeight="1">
       <c r="B24" s="4" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="2:7" ht="16.5" customHeight="1">
       <c r="B25" s="5" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -2579,25 +2191,27 @@
     </row>
     <row r="26" spans="2:7" ht="16.5" customHeight="1">
       <c r="B26" s="4" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="2:7" ht="16.5" customHeight="1">
       <c r="B27" s="5" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>170</v>
+        <v>2</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -2605,7 +2219,7 @@
     </row>
     <row r="28" spans="2:7" ht="16.5" customHeight="1">
       <c r="B28" s="4" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>1</v>
@@ -2617,7 +2231,7 @@
     </row>
     <row r="29" spans="2:7" ht="16.5" customHeight="1">
       <c r="B29" s="5" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>4</v>
@@ -2652,10 +2266,10 @@
   <sheetData>
     <row r="2" spans="2:7" ht="16.5" customHeight="1">
       <c r="B2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -2664,10 +2278,10 @@
     </row>
     <row r="3" spans="2:7" ht="16.5" customHeight="1">
       <c r="B3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -2732,131 +2346,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="2.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="3" customWidth="1"/>
-    <col min="4" max="6" width="7.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="50" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="2.75" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="5" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:G17"/>
   <sheetViews>
@@ -2874,10 +2363,10 @@
   <sheetData>
     <row r="2" spans="2:7" ht="16.5" customHeight="1">
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -2886,10 +2375,10 @@
     </row>
     <row r="3" spans="2:7" ht="16.5" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -2918,7 +2407,7 @@
     </row>
     <row r="6" spans="2:7" ht="16.5" customHeight="1">
       <c r="B6" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>1</v>
@@ -2936,10 +2425,10 @@
     </row>
     <row r="7" spans="2:7" ht="16.5" customHeight="1">
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -2948,7 +2437,7 @@
     </row>
     <row r="8" spans="2:7" ht="16.5" customHeight="1">
       <c r="B8" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
@@ -2962,7 +2451,7 @@
     </row>
     <row r="9" spans="2:7" ht="16.5" customHeight="1">
       <c r="B9" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>7</v>
@@ -2976,7 +2465,7 @@
     </row>
     <row r="10" spans="2:7" ht="16.5" customHeight="1">
       <c r="B10" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>7</v>
@@ -2990,10 +2479,10 @@
     </row>
     <row r="11" spans="2:7" ht="16.5" customHeight="1">
       <c r="B11" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -3002,10 +2491,10 @@
     </row>
     <row r="12" spans="2:7" ht="16.5" customHeight="1">
       <c r="B12" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>2</v>
@@ -3016,7 +2505,7 @@
     </row>
     <row r="13" spans="2:7" ht="16.5" customHeight="1">
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>7</v>
@@ -3030,7 +2519,7 @@
     </row>
     <row r="14" spans="2:7" ht="16.5" customHeight="1">
       <c r="B14" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>1</v>
@@ -3044,10 +2533,10 @@
     </row>
     <row r="15" spans="2:7" ht="16.5" customHeight="1">
       <c r="B15" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>2</v>
@@ -3058,10 +2547,10 @@
     </row>
     <row r="16" spans="2:7" ht="16.5" customHeight="1">
       <c r="B16" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -3070,7 +2559,7 @@
     </row>
     <row r="17" spans="2:7" ht="16.5" customHeight="1">
       <c r="B17" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>7</v>
@@ -3089,7 +2578,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:G10"/>
   <sheetViews>
@@ -3107,10 +2596,10 @@
   <sheetData>
     <row r="2" spans="2:7" ht="16.5" customHeight="1">
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -3119,10 +2608,10 @@
     </row>
     <row r="3" spans="2:7" ht="16.5" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -3224,7 +2713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:G27"/>
   <sheetViews>
@@ -3242,10 +2731,10 @@
   <sheetData>
     <row r="2" spans="2:7" ht="16.5" customHeight="1">
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -3254,10 +2743,10 @@
     </row>
     <row r="3" spans="2:7" ht="16.5" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -3302,10 +2791,10 @@
     </row>
     <row r="7" spans="2:7" ht="16.5" customHeight="1">
       <c r="B7" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -3314,10 +2803,10 @@
     </row>
     <row r="8" spans="2:7" ht="16.5" customHeight="1">
       <c r="B8" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -3326,10 +2815,10 @@
     </row>
     <row r="9" spans="2:7" ht="16.5" customHeight="1">
       <c r="B9" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -3338,10 +2827,10 @@
     </row>
     <row r="10" spans="2:7" ht="16.5" customHeight="1">
       <c r="B10" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -3350,7 +2839,7 @@
     </row>
     <row r="11" spans="2:7" ht="16.5" customHeight="1">
       <c r="B11" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>7</v>
@@ -3364,10 +2853,10 @@
     </row>
     <row r="12" spans="2:7" ht="16.5" customHeight="1">
       <c r="B12" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>2</v>
@@ -3378,7 +2867,7 @@
     </row>
     <row r="13" spans="2:7" ht="16.5" customHeight="1">
       <c r="B13" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>7</v>
@@ -3392,10 +2881,10 @@
     </row>
     <row r="14" spans="2:7" ht="16.5" customHeight="1">
       <c r="B14" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -3404,7 +2893,7 @@
     </row>
     <row r="15" spans="2:7" ht="16.5" customHeight="1">
       <c r="B15" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>17</v>
@@ -3416,7 +2905,7 @@
     </row>
     <row r="16" spans="2:7" ht="16.5" customHeight="1">
       <c r="B16" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>17</v>
@@ -3428,10 +2917,10 @@
     </row>
     <row r="17" spans="2:7" ht="16.5" customHeight="1">
       <c r="B17" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>2</v>
@@ -3442,10 +2931,10 @@
     </row>
     <row r="18" spans="2:7" ht="16.5" customHeight="1">
       <c r="B18" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>2</v>
@@ -3456,7 +2945,7 @@
     </row>
     <row r="19" spans="2:7" ht="16.5" customHeight="1">
       <c r="B19" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>7</v>
@@ -3470,7 +2959,7 @@
     </row>
     <row r="20" spans="2:7" ht="16.5" customHeight="1">
       <c r="B20" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>7</v>
@@ -3484,10 +2973,10 @@
     </row>
     <row r="21" spans="2:7" ht="16.5" customHeight="1">
       <c r="B21" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -3496,10 +2985,10 @@
     </row>
     <row r="22" spans="2:7" ht="16.5" customHeight="1">
       <c r="B22" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -3508,7 +2997,7 @@
     </row>
     <row r="23" spans="2:7" ht="16.5" customHeight="1">
       <c r="B23" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>7</v>
@@ -3522,10 +3011,10 @@
     </row>
     <row r="24" spans="2:7" ht="16.5" customHeight="1">
       <c r="B24" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -3534,7 +3023,7 @@
     </row>
     <row r="25" spans="2:7" ht="16.5" customHeight="1">
       <c r="B25" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>7</v>
@@ -3548,7 +3037,7 @@
     </row>
     <row r="26" spans="2:7" ht="16.5" customHeight="1">
       <c r="B26" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>7</v>
@@ -3562,7 +3051,7 @@
     </row>
     <row r="27" spans="2:7" ht="16.5" customHeight="1">
       <c r="B27" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>7</v>
@@ -3581,7 +3070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:G10"/>
   <sheetViews>
@@ -3599,10 +3088,10 @@
   <sheetData>
     <row r="2" spans="2:7" ht="16.5" customHeight="1">
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -3611,10 +3100,10 @@
     </row>
     <row r="3" spans="2:7" ht="16.5" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -3673,10 +3162,10 @@
     </row>
     <row r="8" spans="2:7" ht="16.5" customHeight="1">
       <c r="B8" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>2</v>
@@ -3687,7 +3176,7 @@
     </row>
     <row r="9" spans="2:7" ht="16.5" customHeight="1">
       <c r="B9" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>7</v>
@@ -3701,7 +3190,7 @@
     </row>
     <row r="10" spans="2:7" ht="16.5" customHeight="1">
       <c r="B10" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>7</v>
@@ -3720,7 +3209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:G8"/>
   <sheetViews>
@@ -3738,10 +3227,10 @@
   <sheetData>
     <row r="2" spans="2:7" ht="16.5" customHeight="1">
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -3750,10 +3239,10 @@
     </row>
     <row r="3" spans="2:7" ht="16.5" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -3814,7 +3303,7 @@
     </row>
     <row r="8" spans="2:7" ht="16.5" customHeight="1">
       <c r="B8" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
@@ -3835,11 +3324,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
@@ -3853,10 +3342,10 @@
   <sheetData>
     <row r="2" spans="2:7" ht="16.5" customHeight="1">
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -3865,10 +3354,10 @@
     </row>
     <row r="3" spans="2:7" ht="16.5" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -3897,7 +3386,7 @@
     </row>
     <row r="6" spans="2:7" ht="16.5" customHeight="1">
       <c r="B6" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>1</v>
@@ -3912,7 +3401,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="16.5" customHeight="1">
@@ -3928,12 +3417,12 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="11" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="16.5" customHeight="1">
       <c r="B8" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>17</v>
@@ -3942,26 +3431,26 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="10" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="16.5" customHeight="1">
       <c r="B9" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="11" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="16.5" customHeight="1">
       <c r="B10" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>1</v>
@@ -3972,12 +3461,12 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="10" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="16.5" customHeight="1">
       <c r="B11" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>7</v>
@@ -3988,40 +3477,40 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="11" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="16.5" customHeight="1">
       <c r="B12" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="10" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="16.5" customHeight="1">
       <c r="B13" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="11" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="16.5" customHeight="1">
       <c r="B14" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>7</v>
@@ -4032,12 +3521,12 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="10" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="16.5" customHeight="1">
       <c r="B15" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>17</v>
@@ -4046,40 +3535,40 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="11" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="16.5" customHeight="1">
       <c r="B16" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="10" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="16.5" customHeight="1">
       <c r="B17" s="5" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="11" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="16.5" customHeight="1">
       <c r="B18" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>7</v>
@@ -4090,12 +3579,12 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="10" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="16.5" customHeight="1">
       <c r="B19" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>7</v>
@@ -4106,12 +3595,12 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="11" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="16.5" customHeight="1">
       <c r="B20" s="4" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>7</v>
@@ -4122,12 +3611,12 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="10" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="16.5" customHeight="1">
       <c r="B21" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>7</v>
@@ -4138,12 +3627,12 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="11" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="16.5" customHeight="1">
       <c r="B22" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>7</v>
@@ -4154,15 +3643,15 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="10" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="16.5" customHeight="1">
       <c r="B23" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>2</v>
@@ -4170,12 +3659,12 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="11" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="16.5" customHeight="1">
       <c r="B24" s="4" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>7</v>
@@ -4186,15 +3675,15 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="10" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="16.5" customHeight="1">
       <c r="B25" s="5" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>2</v>
@@ -4202,12 +3691,12 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="11" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="16.5" customHeight="1">
       <c r="B26" s="4" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>4</v>
@@ -4218,8 +3707,173 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="10" t="s">
-        <v>197</v>
-      </c>
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="2.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="3" customWidth="1"/>
+    <col min="4" max="6" width="7.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="50" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="2.75" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="16.5" customHeight="1">
+      <c r="B2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="2:7" ht="16.5" customHeight="1">
+      <c r="B3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="5" spans="2:7" ht="16.5" customHeight="1">
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="16.5" customHeight="1">
+      <c r="B6" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="2:7" ht="16.5" customHeight="1">
+      <c r="B7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="2:7" ht="16.5" customHeight="1">
+      <c r="B8" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="2:7" ht="16.5" customHeight="1">
+      <c r="B9" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="2:7" ht="16.5" customHeight="1">
+      <c r="B10" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="2:7" ht="16.5" customHeight="1">
+      <c r="B11" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="2:7" ht="16.5" customHeight="1">
+      <c r="B12" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
